--- a/clips/0.2.0/StructureDefinition-Parametros-entradas-ips-cl.xlsx
+++ b/clips/0.2.0/StructureDefinition-Parametros-entradas-ips-cl.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:36:05-03:00</t>
+    <t>2024-11-14T07:45:16-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
